--- a/biology/Botanique/Charles_Lawson/Charles_Lawson.xlsx
+++ b/biology/Botanique/Charles_Lawson/Charles_Lawson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Lawson est un horticulteur et un botaniste britannique, né en 1794 à Édimbourg et mort le 21 décembre 1873 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Peter Lawson (avant 1770-1821) qui avait fondé une pépinière à Édimbourg en 1770. Il prend la tête de l’entreprise de son père à la mort de celui-ci. Il diffuse la culture du cyprès de Lawson à partir de graines reçues de la région de la rivière Sacramento  en 1854.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ray Desmond (1994). Dictionary of British and Irish Botanists and Horticulturists including Plant Collectors, Flower Painters and Garden Designers. Taylor &amp; Francis and The Natural History Museum (Londres).</t>
         </is>
